--- a/20240307circuiti1/20240307circuiti.xlsx
+++ b/20240307circuiti1/20240307circuiti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>R(MOHM)</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">NOTA: attorno ai 0.7-0.8 i valori sono sulla soglia</t>
   </si>
   <si>
+    <t xml:space="preserve">sI (uA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOTA: presi in ordine decrescente</t>
   </si>
 </sst>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
@@ -128,6 +131,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2326,7 +2332,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2339,8 +2345,11 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -2350,6 +2359,9 @@
       <c r="B2">
         <v>83950</v>
       </c>
+      <c r="C2" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -2358,6 +2370,9 @@
       <c r="B3" s="7">
         <v>80623</v>
       </c>
+      <c r="C3" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -2366,6 +2381,9 @@
       <c r="B4" s="7">
         <v>65630</v>
       </c>
+      <c r="C4" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -2374,6 +2392,9 @@
       <c r="B5" s="7">
         <v>57443</v>
       </c>
+      <c r="C5" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -2382,6 +2403,9 @@
       <c r="B6" s="7">
         <v>51095</v>
       </c>
+      <c r="C6" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -2390,6 +2414,9 @@
       <c r="B7" s="7">
         <v>47950</v>
       </c>
+      <c r="C7" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -2398,6 +2425,9 @@
       <c r="B8" s="7">
         <v>43340</v>
       </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -2406,6 +2436,9 @@
       <c r="B9" s="7">
         <v>33040</v>
       </c>
+      <c r="C9" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -2414,6 +2447,9 @@
       <c r="B10" s="7">
         <v>24780</v>
       </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -2422,6 +2458,9 @@
       <c r="B11" s="7">
         <v>21925</v>
       </c>
+      <c r="C11" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -2430,6 +2469,9 @@
       <c r="B12" s="7">
         <v>18460</v>
       </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -2438,6 +2480,9 @@
       <c r="B13" s="7">
         <v>16165</v>
       </c>
+      <c r="C13" s="10">
+        <v>100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -2446,6 +2491,9 @@
       <c r="B14" s="7">
         <v>14020</v>
       </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -2454,6 +2502,9 @@
       <c r="B15" s="7">
         <v>11045</v>
       </c>
+      <c r="C15" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -2462,6 +2513,9 @@
       <c r="B16" s="7">
         <v>8509</v>
       </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -2470,6 +2524,9 @@
       <c r="B17" s="7">
         <v>6312</v>
       </c>
+      <c r="C17" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -2478,6 +2535,9 @@
       <c r="B18" s="7">
         <v>3580</v>
       </c>
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -2486,6 +2546,9 @@
       <c r="B19" s="7">
         <v>1080</v>
       </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -2494,6 +2557,9 @@
       <c r="B20" s="7">
         <v>190</v>
       </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -2502,6 +2568,9 @@
       <c r="B21" s="7">
         <v>161</v>
       </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -2510,6 +2579,9 @@
       <c r="B22" s="7">
         <v>127</v>
       </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -2518,6 +2590,9 @@
       <c r="B23" s="1">
         <v>31.379999999999999</v>
       </c>
+      <c r="C23" s="9">
+        <v>0.10000000000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -2526,6 +2601,9 @@
       <c r="B24" s="1">
         <v>8.1300000000000008</v>
       </c>
+      <c r="C24" s="9">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -2534,12 +2612,18 @@
       <c r="B25" s="1">
         <v>0.77000000000000002</v>
       </c>
+      <c r="C25" s="9">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>0.224</v>
       </c>
       <c r="B26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="9">
         <v>0.01</v>
       </c>
     </row>
